--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560342/JX560342_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560342/JX560342_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89301571226</v>
+        <v>45441.83327606177</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1743_1745del']</t>
+          <t>['1695_1786insaaagggcgatgggactagggcgtaacggatgatggttgggtgttaggaccatggaggccaaaggtaacaacctttcggtgaagcaacccga', '1590_1699del', '1776_1871del', '1602_1751insctaagcagcatttgatcaacttggcgtcatgccgtcatgggacctactgcccggactccgcacgtgggcatagcgtggccgctcgctcttgtattatccaacagtaccagattcgtgtgtcgttcctaacgcaaacctcacgatagccg', '1742_1775insgccagtatctcatgtatgtgggagttaattcgg']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89301574119</v>
+        <v>45441.83327610193</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['169_170del']</t>
+          <t>['223_279insacgagattttctcgccgactactagctcaatgcgattttagcacccaactgtcgac', '240_263inscttatatgatgattgtgctaaag', '221_301del', '181_213del', '165_241del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89301577012</v>
+        <v>45441.83327612511</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['4121c&gt;a']</t>
+          <t>['4078_4184insctaatgtgctattcagccgaactcgccttacttcaattacgggttcgggtaccggagggggtcaccggctagagaacacctccccttcagtgcaaagaagcgtcca', '4149_4284del', '4080_4116inscaagctaggtcgctgtccattacgttcgtctcttat', '4056_4104del', '4160_4223insgcgaaggacgacatattcaaagacaggaaggcagtttgactagtgaacatgtaatcgcaaaag']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.8930158947</v>
+        <v>45441.83327615086</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1734g&gt;c']</t>
+          <t>['1752_1835del', '1586_1680del', '1570_1700del', '1712_1820insatgtggcagttatcccggagtggcgctgtaggaaagtgaagtcgcctcttgtcgtgtacgatcctaccagcttccccccagcctgcctgggcagaaacctgtcgtccg', '1692_1722insaccctaaatcagtcgttcgtgcgccagtgt']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['200_201insc']</t>
+          <t>['238_353del', '207_321instgggttcgtcaggatctgtagtgtcagacccgattccctcgcagaaaggacgacggtgtttataaggggaaacctgtacgggctagtacgctacgtatgatgtagccagccttg', '231_329del', '216_324del', '166_228insagtcgagttaaggtgaggctcaagggaccggcgtcgatccgtcgaatacatccaattactgt']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89301591783</v>
+        <v>45441.833276174</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1644g&gt;t']</t>
+          <t>['1613_1676del', '1594_1698insttaaacggcccgcaggcggtttcggttgggatagcgcccacctagggaatggaagctatgtccggtggcgataataaaaaaggtatctcttgtttagtgatccc', '1665_1741insccctgtagtctgcgcatcgttcgttacgtggtacaagcgatatgattcatgtcacattttggttacttcagtgcta', '1746_1888inscgacgttaatagtgattgcacagatcatactttacacatgtttcttaaagacgcacgcgaagactacggctacgatgttcatcgatgcccaattccttggaggaacgagacagcgcgtatgggtgcgatattaaagaagtga', '1780_1846insagtgtcctattgatgcgagccgtcctggtgaatcactcatgaatctcggggtctcctagattacgt']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['4155_4158del']</t>
+          <t>['4117_4167insttatcactaccaacggacacacgacaatgagctgagcctgtagatagtgc', '4091_4139instcctcccggtcactcttgactgctgtatatcagaagatcagtgacaga', '4078_4096del', '4122_4253insagctaccattccataagggggaacatatgatctagtacgcgttttctgcagctacttcgcactatctcatttcccgtctggggcgtatcctggcacagcagaactaatcgcttctgcttgaacttcaaatg', '4145_4205instgggtaatccctacggtgggacagactgataggactgcgtcgcagtacgcgctaatttcc']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89301594099</v>
+        <v>45441.83327619715</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['180g&gt;t']</t>
+          <t>['195_265del', '222_308insaacagtcgttcacctttaggaggcatatgtcgctcctggttttgaatgacgtcccgtctgtcgcttggagcgtaacatcatgtcag', '195_274del', '187_321del', '172_210del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['4103_4105del']</t>
+          <t>['4145_4272del', '4084_4226del', '4133_4268del', '4137_4286del', '4064_4158inscgcggcattgtgagttttaggtgggtcgtgggcggtgccggaagacctgaactgcttgaaggaagccctattacaatcgtacttgcagcccttc']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89301596413</v>
+        <v>45441.8332762258</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1783_1787del']</t>
+          <t>['1800_1834del', '1672_1687insccattctcttgctcc', '1698_1798del', '1810_1917del', '1615_1743insctcttggaattaaataatagggccggctagtcgatcgcatttgtggtaaccatcgttgttctgagcgaccacgtgtcgtgcgtcatagagtcggtctcggactctggaccaaatgcctacttcttaaa']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['193_197insctga']</t>
+          <t>['172_235insaacgcaggtgcggagtgctaagacgtggtaacgggatcaagcccatcgggtgatcggtgacta', '199_307instattctgctggaaccacgagatactgtactatgccatgcataatcctggagctcgcccttcaacaaacgctgcatgttgtgcgtaccgtcagtgtttgatcattgacc', '183_244instaagttgcggggttgatagttaggagtgggaatcccatagagacattaggcttaccgacag', '159_180instggtcagtgtgtaggagctgc', '212_293insaaggacaagacactaagtgttgtaaccacaaggccacgaaagtcgtcgtttccagtggtgggtgtcctcagctcaatctgc']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['4104_4107insggc']</t>
+          <t>['4093_4201del', '4072_4169del', '4109_4174insatctttcgaccccaactcttggctcggggcgggcgaggcgctgtcacagcgtctaggcttctttg', '4122_4222del', '4072_4171insacgtaaatagtaaatcgtgcactcgtgcggaataatgcgggtaagaggaaaaacagcaagtacggccagcctggctacttgtaaaccgctcactatatt']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89301598729</v>
+        <v>45441.83327624869</v>
       </c>
     </row>
   </sheetData>
